--- a/Data/EC/NIT-8909134293.xlsx
+++ b/Data/EC/NIT-8909134293.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{778E78E6-477A-4894-96A1-775D4E0B6F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B8E0A7-6F79-4E72-B17E-C4D2C69A654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49E4362E-170E-49EF-8594-BB6851995470}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{766F2110-A352-4431-AEDE-9887185F648F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="52">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,57 +65,78 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1043604823</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE SANTANA YEPES</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
     <t>73132438</t>
   </si>
   <si>
     <t>CARLOS ROJANO PADILLA</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
     <t>1909</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>1149438766</t>
   </si>
   <si>
     <t>OSCAR ANTONIO FERRER MARIN</t>
   </si>
   <si>
+    <t>2412</t>
+  </si>
+  <si>
     <t>2411</t>
   </si>
   <si>
@@ -125,37 +146,19 @@
     <t>JUAN PABLO MATIZ MONTERROZA</t>
   </si>
   <si>
-    <t>2412</t>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
   </si>
   <si>
     <t>2501</t>
   </si>
   <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
     <t>1039420565</t>
   </si>
   <si>
     <t>JUAN MANUEL ZAPATA GRAJALES</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1043604823</t>
-  </si>
-  <si>
-    <t>RAFAEL ENRIQUE SANTANA YEPES</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -569,7 +572,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BFE61B5-0479-14EB-AA49-252AD21DD4C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BF434E-41C9-B440-100E-04EC7B1B19A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +923,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1C8D48-D0B0-46C3-ABAA-CE3C687A29A3}">
-  <dimension ref="B2:J56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79229B8E-05ED-47B9-A030-53C26CDF8218}">
+  <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -945,7 +948,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +993,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1022,12 +1025,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2020008</v>
+        <v>1566360</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1038,17 +1041,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1075,13 +1078,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1098,10 +1101,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28708</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1121,10 +1124,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1144,10 +1147,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1167,10 +1170,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1181,13 +1184,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1204,13 +1207,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1227,13 +1230,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1250,13 +1253,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1273,13 +1276,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1296,13 +1299,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1319,13 +1322,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1342,13 +1345,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1365,13 +1368,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1388,19 +1391,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>104520</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
-        <v>2613000</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1411,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1434,19 +1437,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>104520</v>
+        <v>33125</v>
       </c>
       <c r="G31" s="18">
-        <v>2613000</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1457,19 +1460,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>28708</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1480,13 +1483,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>104520</v>
@@ -1503,19 +1506,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>104520</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>2613000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1526,13 +1529,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1549,19 +1552,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F36" s="18">
-        <v>104520</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>2613000</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1572,13 +1575,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1595,19 +1598,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F38" s="18">
-        <v>104520</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>2613000</v>
+        <v>1300000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1618,19 +1621,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1641,19 +1644,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F40" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1664,13 +1667,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1687,19 +1690,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F42" s="18">
-        <v>104520</v>
+        <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>2613000</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1710,19 +1713,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18">
-        <v>104520</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="18">
-        <v>2613000</v>
+        <v>1300000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1733,13 +1736,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
         <v>56940</v>
@@ -1756,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1779,13 +1782,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F46" s="18">
         <v>56940</v>
@@ -1802,13 +1805,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
         <v>56940</v>
@@ -1821,102 +1824,56 @@
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="B48" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G48" s="18">
+      <c r="D48" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="24">
+        <v>7592</v>
+      </c>
+      <c r="G48" s="24">
         <v>1423500</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="24">
-        <v>104520</v>
-      </c>
-      <c r="G50" s="24">
-        <v>2613000</v>
-      </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="32" t="s">
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="H53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="C54" s="32"/>
+      <c r="H54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8909134293.xlsx
+++ b/Data/EC/NIT-8909134293.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B8E0A7-6F79-4E72-B17E-C4D2C69A654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{877D09D7-7076-47A8-8954-AB01DC7599CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{766F2110-A352-4431-AEDE-9887185F648F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85CECE23-DD47-48D3-8871-9BDD65C96649}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,100 +65,103 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73132438</t>
+  </si>
+  <si>
+    <t>CARLOS ROJANO PADILLA</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>1149438766</t>
+  </si>
+  <si>
+    <t>OSCAR ANTONIO FERRER MARIN</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>1004358136</t>
+  </si>
+  <si>
+    <t>JUAN PABLO MATIZ MONTERROZA</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
     <t>1043604823</t>
   </si>
   <si>
     <t>RAFAEL ENRIQUE SANTANA YEPES</t>
   </si>
   <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1039420565</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL ZAPATA GRAJALES</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>73132438</t>
-  </si>
-  <si>
-    <t>CARLOS ROJANO PADILLA</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1149438766</t>
-  </si>
-  <si>
-    <t>OSCAR ANTONIO FERRER MARIN</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>1004358136</t>
-  </si>
-  <si>
-    <t>JUAN PABLO MATIZ MONTERROZA</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>1039420565</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL ZAPATA GRAJALES</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -257,7 +260,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -270,9 +275,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -472,23 +475,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,10 +519,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BF434E-41C9-B440-100E-04EC7B1B19A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB264E9-F284-DCB1-8CFC-993B476F3395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -923,8 +926,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79229B8E-05ED-47B9-A030-53C26CDF8218}">
-  <dimension ref="B2:J54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F6179F-E046-4AEB-B84A-D44C0ECE7778}">
+  <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -948,7 +951,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -993,7 +996,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1025,12 +1028,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1566360</v>
+        <v>1724648</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1041,17 +1044,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1078,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1101,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>28708</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1124,10 +1127,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1147,10 +1150,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1170,10 +1173,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1184,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1207,13 +1210,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1230,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1253,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1276,13 +1279,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1299,13 +1302,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1322,13 +1325,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1345,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1368,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1391,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>104520</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>2861235</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1414,19 +1417,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1437,19 +1440,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>104520</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>2861235</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1460,19 +1463,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>28708</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1483,19 +1486,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F33" s="18">
-        <v>104520</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>2613000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1506,19 +1509,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F34" s="18">
-        <v>104520</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>2613000</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1529,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1552,19 +1555,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F36" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G36" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1575,13 +1578,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1598,19 +1601,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F38" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1621,19 +1624,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1644,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1667,19 +1670,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1690,19 +1693,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E42" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1713,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1736,13 +1739,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F44" s="18">
         <v>56940</v>
@@ -1759,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F45" s="18">
         <v>56940</v>
@@ -1782,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F46" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1805,13 +1808,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F47" s="18">
         <v>56940</v>
@@ -1824,56 +1827,102 @@
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="22" t="s">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="24">
-        <v>7592</v>
-      </c>
-      <c r="G48" s="24">
+      <c r="D50" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G50" s="24">
         <v>1423500</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="32" t="s">
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="H53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="H54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="C56" s="32"/>
+      <c r="H56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H55:J55"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8909134293.xlsx
+++ b/Data/EC/NIT-8909134293.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{877D09D7-7076-47A8-8954-AB01DC7599CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77D2E16-482E-4252-8F7F-7EED9CE8572C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85CECE23-DD47-48D3-8871-9BDD65C96649}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{171230B5-F90F-4262-8391-7BF6AE29AE7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -260,9 +263,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -275,7 +276,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -469,29 +472,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,19 +513,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +584,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB264E9-F284-DCB1-8CFC-993B476F3395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C849EF83-8806-C440-1479-09431D27F807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,8 +935,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F6179F-E046-4AEB-B84A-D44C0ECE7778}">
-  <dimension ref="B2:J56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2DF775-5DEB-4703-AC0E-63DAA5278E63}">
+  <dimension ref="B2:J58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -949,57 +958,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8909134293</v>
       </c>
@@ -1028,12 +1037,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>1724648</v>
+        <v>1833588</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1044,17 +1053,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1081,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1100,18 +1109,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>28708</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>828116</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1123,18 +1132,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>33125</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>828116</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1146,18 +1155,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>33125</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>828116</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1169,18 +1178,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>33125</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>828116</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1192,18 +1201,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>33125</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>828116</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1215,18 +1224,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>33125</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>828116</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1238,18 +1247,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>33125</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>828116</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1261,18 +1270,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>33125</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>828116</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1284,18 +1293,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>33125</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>828116</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1307,18 +1316,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>33125</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>828116</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1330,18 +1339,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>33125</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>828116</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1353,18 +1362,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>33125</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>828116</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1376,18 +1385,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>33125</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>828116</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1399,18 +1408,18 @@
       <c r="D29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>104520</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>2861235</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1422,18 +1431,18 @@
       <c r="D30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>52000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1300000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1445,18 +1454,18 @@
       <c r="D31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>104520</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>2861235</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1468,18 +1477,18 @@
       <c r="D32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>52000</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1300000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1491,18 +1500,18 @@
       <c r="D33" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>52000</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1300000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1514,18 +1523,18 @@
       <c r="D34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>52000</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>1300000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1537,18 +1546,18 @@
       <c r="D35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>52000</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1300000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1560,18 +1569,18 @@
       <c r="D36" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>56940</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1423500</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1583,18 +1592,18 @@
       <c r="D37" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>52000</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1300000</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1606,18 +1615,18 @@
       <c r="D38" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>56940</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>1423500</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1629,18 +1638,18 @@
       <c r="D39" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>56940</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>1423500</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1652,18 +1661,18 @@
       <c r="D40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>52000</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>1300000</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1675,18 +1684,18 @@
       <c r="D41" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>56940</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1423500</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1698,18 +1707,18 @@
       <c r="D42" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>56940</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>1423500</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1721,18 +1730,18 @@
       <c r="D43" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>52000</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>1300000</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1744,18 +1753,18 @@
       <c r="D44" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>56940</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>1423500</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1767,18 +1776,18 @@
       <c r="D45" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>56940</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>1423500</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1790,18 +1799,18 @@
       <c r="D46" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>52000</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>1300000</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1813,18 +1822,18 @@
       <c r="D47" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>56940</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>1423500</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1836,18 +1845,18 @@
       <c r="D48" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>56940</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>1423500</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1859,70 +1868,116 @@
       <c r="D49" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>52000</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>1300000</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="22" t="s">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="19">
         <v>56940</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="19">
         <v>1423500</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="32" t="s">
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="26">
+        <v>56940</v>
+      </c>
+      <c r="G52" s="26">
+        <v>1423500</v>
+      </c>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="H57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="C58" s="34"/>
+      <c r="H58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H57:J57"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
